--- a/documentation/Fields_Added_To_rptPlacement_Events.xlsx
+++ b/documentation/Fields_Added_To_rptPlacement_Events.xlsx
@@ -1302,7 +1302,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
